--- a/biology/Zoologie/Huallasaurus/Huallasaurus.xlsx
+++ b/biology/Zoologie/Huallasaurus/Huallasaurus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Huallasaurus australis
-Huallasaurus (qui signifie « lézard canard ») est un genre fossile de dinosaures hadrosaures de la famille des saurolophinés de la formation Los Alamitos du Crétacé supérieur de la région Patagonie en Argentine. Le type et la seule espèce est Huallasaurus australis. Nommé à l'origine par José Bonaparte et son équipe comme une espèce de Kritosaurus en 1984[1], il a longtemps été considéré comme un synonyme de Secernosaurus[2] avant d'être reconnu comme son propre genre distinct dans une étude de 2022, différent des autres membres des Kritosaurini[3].
+Huallasaurus (qui signifie « lézard canard ») est un genre fossile de dinosaures hadrosaures de la famille des saurolophinés de la formation Los Alamitos du Crétacé supérieur de la région Patagonie en Argentine. Le type et la seule espèce est Huallasaurus australis. Nommé à l'origine par José Bonaparte et son équipe comme une espèce de Kritosaurus en 1984, il a longtemps été considéré comme un synonyme de Secernosaurus avant d'être reconnu comme son propre genre distinct dans une étude de 2022, différent des autres membres des Kritosaurini.
 </t>
         </is>
       </c>
@@ -512,9 +524,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom générique, « Huallasaurus », combine « hualla », le mot Mapudungun pour « canard » et le grec « sauros », qui signifie « lézard ». Le nom spécifique, « australis », est dérivé du latin « australis », qui signifie « sud », après la découverte du spécimen holotype dans le sud de l'Argentine[1],[3].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom générique, « Huallasaurus », combine « hualla », le mot Mapudungun pour « canard » et le grec « sauros », qui signifie « lézard ». Le nom spécifique, « australis », est dérivé du latin « australis », qui signifie « sud », après la découverte du spécimen holotype dans le sud de l'Argentine,.
 </t>
         </is>
       </c>
@@ -543,9 +557,11 @@
           <t>Phylogénie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le tableau ci-dessous est une reproduction de l'arbre phylogénétique produit par Sebastián Rozadilla (d) et al. (2022), incluant Huallasaurus et Kelumapusaura, qui a été décrit dans la même étude[3].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le tableau ci-dessous est une reproduction de l'arbre phylogénétique produit par Sebastián Rozadilla (d) et al. (2022), incluant Huallasaurus et Kelumapusaura, qui a été décrit dans la même étude.
 </t>
         </is>
       </c>
@@ -574,9 +590,11 @@
           <t>Paléoécologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Huallasaurus est connu de la formation Los Alamitos du Crétacé supérieur de la province de Río Negro, en Argentine. Aeolosaurus rionegrinus, un sauropode titanosaurien, a également été nommé d'après cette formation[3].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Huallasaurus est connu de la formation Los Alamitos du Crétacé supérieur de la province de Río Negro, en Argentine. Aeolosaurus rionegrinus, un sauropode titanosaurien, a également été nommé d'après cette formation.
 </t>
         </is>
       </c>
